--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Statistics.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Statistics.xlsx
@@ -548,61 +548,61 @@
         <v>-0.1401758193969727</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.517481334507465e-08</v>
+        <v>-3.397144610062242e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.352761268615723e-08</v>
+        <v>0.0003960722533520311</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1977376937867039</v>
+        <v>0.1977348392732348</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2008378146776234</v>
+        <v>0.2008338554949827</v>
       </c>
       <c r="G2" t="n">
-        <v>6.59133269127414e-08</v>
+        <v>5.162737284851767e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>3.780756728758e-08</v>
+        <v>8.744518901635336e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1445160634809133</v>
+        <v>0.1445150098343479</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.432756487828035</v>
+        <v>-1.432728243422846</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.618225049348264</v>
+        <v>-1.519728441809599</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.12765461834358</v>
+        <v>0.0002207809011519714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7308473195646763</v>
+        <v>0.7308525415425329</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4367702484130859</v>
+        <v>-0.4367622375488281</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.070089638233185e-07</v>
+        <v>-1.165550202131271e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.834766387939453e-08</v>
+        <v>0.0003959970024880022</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04165000915562776</v>
+        <v>0.04165055493029818</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1237628936767578</v>
+        <v>0.1237552642822265</v>
       </c>
       <c r="S2" t="n">
-        <v>7.388880476355548e-08</v>
+        <v>2.551823854446409e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.0003962220100220293</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4367702484130894</v>
+        <v>0.4367624409672576</v>
       </c>
     </row>
     <row r="3">
@@ -613,61 +613,61 @@
         <v>0.1401758193969727</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.001493263989687e-08</v>
+        <v>2.648448571562767e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>1.490116119384766e-08</v>
+        <v>0.0003960014728363603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1977376937866634</v>
+        <v>0.1977348388130075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2008378146776234</v>
+        <v>0.2008338554949827</v>
       </c>
       <c r="G3" t="n">
-        <v>4.256082461205776e-08</v>
+        <v>5.809567078007855e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>2.980232238769531e-08</v>
+        <v>8.815645848363066e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1445160634809614</v>
+        <v>0.1445150102700888</v>
       </c>
       <c r="J3" t="n">
-        <v>1.432756487828035</v>
+        <v>1.432728243422846</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.8509623499544019</v>
+        <v>21.93573679469188</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0.0002226164914292113</v>
       </c>
       <c r="M3" t="n">
-        <v>0.730847319565069</v>
+        <v>0.7308525454472532</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1237628936767578</v>
+        <v>-0.1237552642822266</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.097738277167082e-07</v>
+        <v>-8.810311555862426e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.937150955200195e-08</v>
+        <v>0.0003958494809921831</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04165000915542903</v>
+        <v>0.04165055313858546</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4367702484130858</v>
+        <v>0.436762237548828</v>
       </c>
       <c r="S3" t="n">
-        <v>2.887099981307976e-09</v>
+        <v>7.664784789085385e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>5.960464477539062e-08</v>
+        <v>0.0003960849193390459</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4367702484130883</v>
+        <v>0.4367624409815861</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.032432556152344</v>
+        <v>-2.032451629638672</v>
       </c>
       <c r="C4" t="n">
-        <v>5.975841522216797</v>
+        <v>5.975830078125</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.354968070983887</v>
+        <v>-3.35456371307373</v>
       </c>
       <c r="E4" t="n">
-        <v>7.534180642878309</v>
+        <v>7.533999595614892</v>
       </c>
       <c r="F4" t="n">
-        <v>1.277142754865844</v>
+        <v>1.27713915442773</v>
       </c>
       <c r="G4" t="n">
-        <v>1.899985604478797</v>
+        <v>1.900010981820158</v>
       </c>
       <c r="H4" t="n">
-        <v>1.208504443916083</v>
+        <v>1.208511026553517</v>
       </c>
       <c r="I4" t="n">
-        <v>1.017309538073516</v>
+        <v>1.017338488361173</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6283813703927471</v>
+        <v>-0.6283737018896629</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3179444430403801</v>
+        <v>0.3179492985878729</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3602133964755359</v>
+        <v>-0.360258778762672</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1350259021244904</v>
+        <v>0.1350329895097562</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.749853515625</v>
+        <v>-3.749916076660156</v>
       </c>
       <c r="O4" t="n">
-        <v>3.768461608886719</v>
+        <v>3.768218994140625</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.012421035766602</v>
+        <v>-5.012031555175781</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.349752548839056</v>
+        <v>6.349386931985904</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1113739013671878</v>
+        <v>-0.1114120483398441</v>
       </c>
       <c r="S4" t="n">
-        <v>8.914303588867186</v>
+        <v>8.914176940917969</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.856730270385742</v>
+        <v>-1.856333541870117</v>
       </c>
       <c r="U4" t="n">
-        <v>9.173068747377217</v>
+        <v>9.172862320679116</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.570697784423828</v>
+        <v>-5.570735931396484</v>
       </c>
       <c r="C5" t="n">
-        <v>3.909664154052734</v>
+        <v>3.909744262695312</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.560449600219727</v>
+        <v>-3.560035705566406</v>
       </c>
       <c r="E5" t="n">
-        <v>7.903714141846333</v>
+        <v>7.903579975099816</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9119571504058257</v>
+        <v>0.9118948688361098</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64186850049365</v>
+        <v>1.641849423230576</v>
       </c>
       <c r="H5" t="n">
-        <v>1.010543240936852</v>
+        <v>1.010542383808836</v>
       </c>
       <c r="I5" t="n">
-        <v>1.036748465851415</v>
+        <v>1.036771194133931</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1637060895595054</v>
+        <v>-0.1636937884089426</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4199512888573048</v>
+        <v>0.4199378048575261</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2838246161031145</v>
+        <v>-0.2838573731799293</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1311723130727027</v>
+        <v>0.1311774154750471</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.676193237304688</v>
+        <v>-6.676252746582032</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8944091796875</v>
+        <v>1.894477844238281</v>
       </c>
       <c r="P5" t="n">
-        <v>-4.921295166015625</v>
+        <v>-4.920892715454102</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.555377869952569</v>
+        <v>6.555314707770798</v>
       </c>
       <c r="R5" t="n">
-        <v>-4.213050842285156</v>
+        <v>-4.213240051269532</v>
       </c>
       <c r="S5" t="n">
-        <v>6.429222106933593</v>
+        <v>6.429309082031249</v>
       </c>
       <c r="T5" t="n">
-        <v>-2.392025756835938</v>
+        <v>-2.391622543334961</v>
       </c>
       <c r="U5" t="n">
-        <v>9.522569282098882</v>
+        <v>9.522530472610924</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.229145050048828</v>
+        <v>6.229175567626953</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.316070556640625</v>
+        <v>-4.316154479980469</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.548044204711914</v>
+        <v>-3.547634124755859</v>
       </c>
       <c r="E6" t="n">
-        <v>8.561343230315405</v>
+        <v>8.561237601195764</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8686566939651759</v>
+        <v>0.868640530349045</v>
       </c>
       <c r="G6" t="n">
-        <v>1.815518752160805</v>
+        <v>1.815516023095673</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7461203177000689</v>
+        <v>0.7461334095761919</v>
       </c>
       <c r="I6" t="n">
-        <v>1.153300132521111</v>
+        <v>1.153293645325473</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1394503879723216</v>
+        <v>0.1394471099616092</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4206415832029164</v>
+        <v>-0.4206327719539566</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2102905924084028</v>
+        <v>-0.210318590738987</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1347101852472538</v>
+        <v>0.1347110895700863</v>
       </c>
       <c r="N6" t="n">
-        <v>5.125093078613281</v>
+        <v>5.125100708007812</v>
       </c>
       <c r="O6" t="n">
-        <v>-7.106880187988281</v>
+        <v>-7.106944274902344</v>
       </c>
       <c r="P6" t="n">
-        <v>-4.654970932006836</v>
+        <v>-4.654594421386719</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.774645960721685</v>
+        <v>7.77453085566178</v>
       </c>
       <c r="R6" t="n">
-        <v>7.537881469726562</v>
+        <v>7.537850952148437</v>
       </c>
       <c r="S6" t="n">
-        <v>-2.175257873535156</v>
+        <v>-2.175355529785157</v>
       </c>
       <c r="T6" t="n">
-        <v>-2.548194885253906</v>
+        <v>-2.547772979736328</v>
       </c>
       <c r="U6" t="n">
-        <v>10.55329654679826</v>
+        <v>10.55313626721985</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.194664001464844</v>
+        <v>1.194652557373047</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.434860229492188</v>
+        <v>-7.434833526611328</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.038516998291016</v>
+        <v>-3.038118362426758</v>
       </c>
       <c r="E7" t="n">
-        <v>8.519343020648037</v>
+        <v>8.519175036761622</v>
       </c>
       <c r="F7" t="n">
-        <v>1.746905243531477</v>
+        <v>1.746957547730154</v>
       </c>
       <c r="G7" t="n">
-        <v>2.639466373497648</v>
+        <v>2.639497411721841</v>
       </c>
       <c r="H7" t="n">
-        <v>1.004997469814928</v>
+        <v>1.005005611365536</v>
       </c>
       <c r="I7" t="n">
-        <v>2.094332670555623</v>
+        <v>2.094423003437443</v>
       </c>
       <c r="J7" t="n">
-        <v>1.462256535217852</v>
+        <v>1.462314324736881</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3550122385660406</v>
+        <v>-0.3550176883281044</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.3307526238557096</v>
+        <v>-0.3307987021818226</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2458326499449149</v>
+        <v>0.2458481008313209</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.440496826171875</v>
+        <v>-1.440586853027344</v>
       </c>
       <c r="O7" t="n">
-        <v>-11.79921264648437</v>
+        <v>-11.79924011230469</v>
       </c>
       <c r="P7" t="n">
-        <v>-4.189778900146484</v>
+        <v>-4.189359283447265</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.459979280020536</v>
+        <v>6.459701707253894</v>
       </c>
       <c r="R7" t="n">
-        <v>3.528764343261718</v>
+        <v>3.528784179687499</v>
       </c>
       <c r="S7" t="n">
-        <v>-4.412626647949219</v>
+        <v>-4.412631225585939</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.511309814453126</v>
+        <v>-1.510884094238282</v>
       </c>
       <c r="U7" t="n">
-        <v>12.06346769484515</v>
+        <v>12.06345327057842</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.750955581665039</v>
+        <v>3.750953674316406</v>
       </c>
       <c r="C8" t="n">
-        <v>1.521928727626801</v>
+        <v>1.521940231323242</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.735095977783203</v>
+        <v>-3.734689712524414</v>
       </c>
       <c r="E8" t="n">
-        <v>5.538011363981035</v>
+        <v>5.537738213021584</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9356214943310172</v>
+        <v>0.9356129744026414</v>
       </c>
       <c r="G8" t="n">
-        <v>0.395731906533158</v>
+        <v>0.3957435955499027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6367368453062121</v>
+        <v>0.6367373423753169</v>
       </c>
       <c r="I8" t="n">
-        <v>1.051062346363003</v>
+        <v>1.051064860952317</v>
       </c>
       <c r="J8" t="n">
-        <v>0.249435503556589</v>
+        <v>0.2494333589905379</v>
       </c>
       <c r="K8" t="n">
-        <v>0.260019999195519</v>
+        <v>0.2600257141542449</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1704740250568122</v>
+        <v>-0.1704927025771366</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1897905723341529</v>
+        <v>0.1898003879058088</v>
       </c>
       <c r="N8" t="n">
-        <v>2.363695526123047</v>
+        <v>2.363700866699219</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9985037326812745</v>
+        <v>0.998508071899414</v>
       </c>
       <c r="P8" t="n">
-        <v>-4.500630187988281</v>
+        <v>-4.500225830078125</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.033645329837984</v>
+        <v>4.033366879611719</v>
       </c>
       <c r="R8" t="n">
-        <v>4.793621826171875</v>
+        <v>4.793601226806641</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108483147621155</v>
+        <v>2.108509564399719</v>
       </c>
       <c r="T8" t="n">
-        <v>-2.799619293212891</v>
+        <v>-2.799209594726562</v>
       </c>
       <c r="U8" t="n">
-        <v>6.653096711872254</v>
+        <v>6.652825253342281</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.470184326171875</v>
+        <v>-3.470190048217773</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.297934263944626</v>
+        <v>-1.297930896282196</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.935478210449219</v>
+        <v>-2.935075759887695</v>
       </c>
       <c r="E9" t="n">
-        <v>4.74840213172614</v>
+        <v>4.748153217369296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8674084454684927</v>
+        <v>0.867399633529235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3005211960187703</v>
+        <v>0.3005261851431288</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6326376426102048</v>
+        <v>0.6326462074152451</v>
       </c>
       <c r="I9" t="n">
-        <v>1.019540542570643</v>
+        <v>1.019555618345433</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2499603375320907</v>
+        <v>-0.2499573860442357</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2315380712004931</v>
+        <v>-0.2315425158642564</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2155143377860031</v>
+        <v>-0.2155468066825819</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2147123420231513</v>
+        <v>0.2147267730568972</v>
       </c>
       <c r="N9" t="n">
         <v>-4.287605285644531</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.705666446685791</v>
+        <v>-1.705683839321136</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.783482360839844</v>
+        <v>-3.783087921142578</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.047962669919426</v>
+        <v>3.047674147919133</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.993755340576173</v>
+        <v>-1.993775177001954</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.8874970912933351</v>
+        <v>-0.8874974250793458</v>
       </c>
       <c r="T9" t="n">
-        <v>-2.095935440063477</v>
+        <v>-2.095511245727539</v>
       </c>
       <c r="U9" t="n">
-        <v>5.764943876596107</v>
+        <v>5.764694369680116</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.545491967080345</v>
+        <v>-6.545517179332975</v>
       </c>
       <c r="C10" t="n">
-        <v>2.655085030931133</v>
+        <v>2.655126413755013</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.906609945059312</v>
+        <v>-2.906221729515419</v>
       </c>
       <c r="E10" t="n">
-        <v>7.913543038156158</v>
+        <v>7.913436601391908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8151089242579149</v>
+        <v>0.8150888233422999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.701490289313546</v>
+        <v>1.701481646163837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.378180628205526</v>
+        <v>1.378169081085866</v>
       </c>
       <c r="I10" t="n">
-        <v>1.08444141176458</v>
+        <v>1.084387805654486</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1245298181339758</v>
+        <v>-0.124526267521822</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6408421084415655</v>
+        <v>0.6408288650021436</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.4741539643281591</v>
+        <v>-0.474213328972549</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1370361425389118</v>
+        <v>0.1370312116310821</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.635915534399868</v>
+        <v>-7.635905844204021</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7092889330119363</v>
+        <v>0.7093001441171425</v>
       </c>
       <c r="P10" t="n">
-        <v>-5.199343937383476</v>
+        <v>-5.198921619050772</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.744367485922353</v>
+        <v>6.744250359933977</v>
       </c>
       <c r="R10" t="n">
-        <v>-5.529501006385374</v>
+        <v>-5.529549924123822</v>
       </c>
       <c r="S10" t="n">
-        <v>5.408201225646782</v>
+        <v>5.408234707767964</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.309931516635907</v>
+        <v>-1.309532105079011</v>
       </c>
       <c r="U10" t="n">
-        <v>9.692083316208873</v>
+        <v>9.691848840433279</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-8.802772818527892</v>
+        <v>-8.802785220086783</v>
       </c>
       <c r="C11" t="n">
-        <v>2.655085030931133</v>
+        <v>2.655126413755013</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.906609945059312</v>
+        <v>-2.906221729515419</v>
       </c>
       <c r="E11" t="n">
-        <v>9.839756649232866</v>
+        <v>9.839665496798506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5447231052660378</v>
+        <v>0.5447115511048363</v>
       </c>
       <c r="G11" t="n">
-        <v>1.701490289313546</v>
+        <v>1.701481646163837</v>
       </c>
       <c r="H11" t="n">
-        <v>1.378180628205526</v>
+        <v>1.378169081085866</v>
       </c>
       <c r="I11" t="n">
-        <v>1.12117375222724</v>
+        <v>1.121129804446819</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.06188085464610833</v>
+        <v>-0.06187945490955261</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6408421084415655</v>
+        <v>0.6408288650021436</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.4741539643281591</v>
+        <v>-0.474213328972549</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1139432398782596</v>
+        <v>0.1139398290329683</v>
       </c>
       <c r="N11" t="n">
-        <v>-9.670996118680886</v>
+        <v>-9.670992139159363</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7092889330119363</v>
+        <v>0.7093001441171425</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.199343937383476</v>
+        <v>-5.198921619050772</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.542155981581557</v>
+        <v>8.542058376044688</v>
       </c>
       <c r="R11" t="n">
-        <v>-8.204542777551827</v>
+        <v>-8.20461455553791</v>
       </c>
       <c r="S11" t="n">
-        <v>5.408201225646782</v>
+        <v>5.408234707767964</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.309931516635907</v>
+        <v>-1.309532105079011</v>
       </c>
       <c r="U11" t="n">
-        <v>11.67464887894027</v>
+        <v>11.67444741640501</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-8.802787651098406</v>
+        <v>-8.802800052657297</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.741444043844767</v>
+        <v>-1.741446642275531</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.621284124372149</v>
+        <v>-5.620881624211451</v>
       </c>
       <c r="E12" t="n">
-        <v>10.66154857350374</v>
+        <v>10.66134901453075</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5447231052660378</v>
+        <v>0.5447115511048363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8044526522630768</v>
+        <v>0.8044539460884209</v>
       </c>
       <c r="H12" t="n">
-        <v>1.206847944539544</v>
+        <v>1.206853795375991</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9231816193440783</v>
+        <v>0.9231606075954414</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.06188075037775876</v>
+        <v>-0.06187935064370848</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.4619457369913552</v>
+        <v>-0.4619457906773697</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.2146925716327031</v>
+        <v>-0.2147089862518319</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08658982444992883</v>
+        <v>0.08658947440302646</v>
       </c>
       <c r="N12" t="n">
-        <v>-9.6710109512514</v>
+        <v>-9.671006971729877</v>
       </c>
       <c r="O12" t="n">
-        <v>-2.916056556586172</v>
+        <v>-2.916060395015209</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.559252205031165</v>
+        <v>-7.558854226077854</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.881788693152243</v>
+        <v>9.881527018003192</v>
       </c>
       <c r="R12" t="n">
-        <v>-8.204557610122341</v>
+        <v>-8.204629388108424</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.7761870390246945</v>
+        <v>-0.7761915739020324</v>
       </c>
       <c r="T12" t="n">
-        <v>-4.221258616052281</v>
+        <v>-4.220854248475488</v>
       </c>
       <c r="U12" t="n">
-        <v>12.20210323775716</v>
+        <v>12.20184905446279</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.458348007130866</v>
+        <v>-2.458377684129182</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.801545572786395</v>
+        <v>-8.801577058154571</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2099890893001515</v>
+        <v>-0.2096017148190708</v>
       </c>
       <c r="E13" t="n">
-        <v>9.263666373672828</v>
+        <v>9.263693955754922</v>
       </c>
       <c r="F13" t="n">
-        <v>1.213384557831779</v>
+        <v>1.213383690758321</v>
       </c>
       <c r="G13" t="n">
-        <v>1.337204516768749</v>
+        <v>1.337167739225539</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7857017759752153</v>
+        <v>0.785720281981959</v>
       </c>
       <c r="I13" t="n">
-        <v>1.27161527771983</v>
+        <v>1.27159766701724</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4935772129544501</v>
+        <v>-0.4935709018966835</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1519283750462269</v>
+        <v>-0.1519236530442766</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.741631427584121</v>
+        <v>-3.748634798432812</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1372691142390164</v>
+        <v>0.1372668044832461</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.931096622445267</v>
+        <v>-3.931136629230628</v>
       </c>
       <c r="O13" t="n">
-        <v>-11.0609454604801</v>
+        <v>-11.06092789060736</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.499148376757907</v>
+        <v>-1.498797427262687</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.917443737481816</v>
+        <v>7.917470082374354</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.6194902842494122</v>
+        <v>-0.6195480747832056</v>
       </c>
       <c r="S13" t="n">
-        <v>-7.328623671826469</v>
+        <v>-7.328722188668675</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6293732936886925</v>
+        <v>0.6297621372108287</v>
       </c>
       <c r="U13" t="n">
-        <v>11.43029531950964</v>
+        <v>11.43028935395577</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.802772818527892</v>
+        <v>-8.802785220086783</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.801545572786395</v>
+        <v>-8.801577058154571</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2099890893001515</v>
+        <v>-0.2096017148190708</v>
       </c>
       <c r="E14" t="n">
-        <v>12.51287515025973</v>
+        <v>12.51289852580574</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5447231052660378</v>
+        <v>0.5447115511048363</v>
       </c>
       <c r="G14" t="n">
-        <v>1.337204516768749</v>
+        <v>1.337167739225539</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7857017759752153</v>
+        <v>0.785720281981959</v>
       </c>
       <c r="I14" t="n">
-        <v>1.063123284447777</v>
+        <v>1.063096562690936</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.06188085464610833</v>
+        <v>-0.06187945490955261</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1519283750462269</v>
+        <v>-0.1519236530442766</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.741631427584121</v>
+        <v>-3.748634798432812</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0849623505134797</v>
+        <v>0.08496005625702781</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.670996118680886</v>
+        <v>-9.670992139159363</v>
       </c>
       <c r="O14" t="n">
-        <v>-11.0609454604801</v>
+        <v>-11.06092789060736</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.499148376757907</v>
+        <v>-1.498797427262687</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.3684889675703</v>
+        <v>11.36856517069227</v>
       </c>
       <c r="R14" t="n">
-        <v>-8.204542777551827</v>
+        <v>-8.20461455553791</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.328623671826469</v>
+        <v>-7.328722188668675</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6293732936886925</v>
+        <v>0.6297621372108287</v>
       </c>
       <c r="U14" t="n">
-        <v>14.26917673468679</v>
+        <v>14.26916429995521</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.686814340469077</v>
+        <v>8.686830616017289</v>
       </c>
       <c r="C15" t="n">
-        <v>9.691290997700989</v>
+        <v>9.691337652736721</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.125064008159885</v>
+        <v>-4.124671984850789</v>
       </c>
       <c r="E15" t="n">
-        <v>13.73201996038116</v>
+        <v>13.73194239761083</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9193086526256101</v>
+        <v>0.9193076162512157</v>
       </c>
       <c r="G15" t="n">
-        <v>1.761143858859692</v>
+        <v>1.761115315809587</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5935472041437604</v>
+        <v>0.5935387790348364</v>
       </c>
       <c r="I15" t="n">
-        <v>1.459006456787415</v>
+        <v>1.458996419849527</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1058280534836397</v>
+        <v>0.1058277359013012</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1817243811250202</v>
+        <v>0.1817205610736582</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1438879985788465</v>
+        <v>-0.1438996315864152</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1062484951956709</v>
+        <v>0.1062483644049783</v>
       </c>
       <c r="N15" t="n">
-        <v>7.531510056983438</v>
+        <v>7.531561867954101</v>
       </c>
       <c r="O15" t="n">
-        <v>7.073087680237057</v>
+        <v>7.073181089437389</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.678224956208</v>
+        <v>-4.677828763937461</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.32145971745332</v>
+        <v>12.32142825748025</v>
       </c>
       <c r="R15" t="n">
-        <v>10.02040669612309</v>
+        <v>10.02041490773275</v>
       </c>
       <c r="S15" t="n">
-        <v>12.05584039301825</v>
+        <v>12.05584714284092</v>
       </c>
       <c r="T15" t="n">
-        <v>-3.082892756505421</v>
+        <v>-3.08251377138467</v>
       </c>
       <c r="U15" t="n">
-        <v>16.16501493289616</v>
+        <v>16.16492852402657</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05377590081913297</v>
+        <v>0.05379779502199966</v>
       </c>
       <c r="C16" t="n">
-        <v>9.691290997700989</v>
+        <v>9.691337652736721</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.125064008159885</v>
+        <v>-4.124671984850789</v>
       </c>
       <c r="E16" t="n">
-        <v>10.76033725009033</v>
+        <v>10.7602260333283</v>
       </c>
       <c r="F16" t="n">
-        <v>1.979903212480991</v>
+        <v>1.979905746801416</v>
       </c>
       <c r="G16" t="n">
-        <v>1.761143858859692</v>
+        <v>1.761115315809587</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5935472041437604</v>
+        <v>0.5935387790348364</v>
       </c>
       <c r="I16" t="n">
-        <v>1.590361937202438</v>
+        <v>1.590351093442286</v>
       </c>
       <c r="J16" t="n">
-        <v>36.81766706503147</v>
+        <v>36.80273040915093</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1817243811250202</v>
+        <v>0.1817205610736582</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1438879985788465</v>
+        <v>-0.1438996315864152</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1477985215741344</v>
+        <v>0.1477990414435901</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.994214224871294</v>
+        <v>-2.994208904296909</v>
       </c>
       <c r="O16" t="n">
-        <v>7.073087680237057</v>
+        <v>7.073181089437389</v>
       </c>
       <c r="P16" t="n">
-        <v>-4.678224956208</v>
+        <v>-4.677828763937461</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.633673861348182</v>
+        <v>8.633564649492191</v>
       </c>
       <c r="R16" t="n">
-        <v>2.461298147902406</v>
+        <v>2.461330995740787</v>
       </c>
       <c r="S16" t="n">
-        <v>12.05584039301825</v>
+        <v>12.05584714284092</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.082892756505421</v>
+        <v>-3.08251377138467</v>
       </c>
       <c r="U16" t="n">
-        <v>12.89414519948456</v>
+        <v>12.89402598133364</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.686829173039591</v>
+        <v>8.686845448587803</v>
       </c>
       <c r="C17" t="n">
-        <v>7.642569099397599</v>
+        <v>7.642564221231241</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.386001146597742</v>
+        <v>-5.38560618336016</v>
       </c>
       <c r="E17" t="n">
-        <v>12.87382064309443</v>
+        <v>12.87366442947781</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9193086526256101</v>
+        <v>0.9193076162512157</v>
       </c>
       <c r="G17" t="n">
-        <v>1.498022368385665</v>
+        <v>1.498014188906386</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7282812551441479</v>
+        <v>0.7282877397539856</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8736171488684468</v>
+        <v>0.8735936573017383</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1058278727845567</v>
+        <v>0.1058275552030991</v>
       </c>
       <c r="K17" t="n">
-        <v>0.196010313927517</v>
+        <v>0.1960093687855267</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1352174341077132</v>
+        <v>-0.1352285545876279</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06785997514553369</v>
+        <v>0.06785897380557819</v>
       </c>
       <c r="N17" t="n">
-        <v>7.531524889553952</v>
+        <v>7.531576700524615</v>
       </c>
       <c r="O17" t="n">
-        <v>5.446928437429071</v>
+        <v>5.446939217173689</v>
       </c>
       <c r="P17" t="n">
-        <v>-6.349760546052371</v>
+        <v>-6.349379222682056</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.47605955814616</v>
+        <v>11.47593581445498</v>
       </c>
       <c r="R17" t="n">
-        <v>10.0204215286936</v>
+        <v>10.02042974030326</v>
       </c>
       <c r="S17" t="n">
-        <v>9.447497736986465</v>
+        <v>9.447475781078717</v>
       </c>
       <c r="T17" t="n">
-        <v>-4.411552268336844</v>
+        <v>-4.411153656171061</v>
       </c>
       <c r="U17" t="n">
-        <v>13.70719389162893</v>
+        <v>13.70703153099</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.686814340469077</v>
+        <v>8.686830616017289</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09606136500559614</v>
+        <v>-0.0960874933908471</v>
       </c>
       <c r="D18" t="n">
-        <v>2.299973166775068</v>
+        <v>2.300364718320848</v>
       </c>
       <c r="E18" t="n">
-        <v>9.228873752583237</v>
+        <v>9.22898327208868</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9193086526256101</v>
+        <v>0.9193076162512157</v>
       </c>
       <c r="G18" t="n">
-        <v>1.734258017836796</v>
+        <v>1.73424442791723</v>
       </c>
       <c r="H18" t="n">
-        <v>1.339831913971452</v>
+        <v>1.339845229362976</v>
       </c>
       <c r="I18" t="n">
-        <v>1.111605068048637</v>
+        <v>1.11162944647499</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1058280534836397</v>
+        <v>0.1058277359013012</v>
       </c>
       <c r="K18" t="n">
-        <v>-18.05364745478856</v>
+        <v>-18.0485968227206</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5825424110708697</v>
+        <v>0.5824490432721452</v>
       </c>
       <c r="M18" t="n">
-        <v>0.12044861570866</v>
+        <v>0.1204498278631519</v>
       </c>
       <c r="N18" t="n">
-        <v>7.531510056983438</v>
+        <v>7.531561867954101</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.756804610710731</v>
+        <v>-2.756827605456945</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2438022346280718</v>
+        <v>0.2441685381817735</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.847619499698765</v>
+        <v>7.847690549470737</v>
       </c>
       <c r="R18" t="n">
-        <v>10.02040669612309</v>
+        <v>10.02041490773275</v>
       </c>
       <c r="S18" t="n">
-        <v>1.961376216476785</v>
+        <v>1.96131603260207</v>
       </c>
       <c r="T18" t="n">
-        <v>4.03993345160877</v>
+        <v>4.040329904032145</v>
       </c>
       <c r="U18" t="n">
-        <v>10.91932989726047</v>
+        <v>10.91946024435508</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.32994213964128</v>
+        <v>13.32996018017194</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09606136500559614</v>
+        <v>-0.0960874933908471</v>
       </c>
       <c r="D19" t="n">
-        <v>2.299973166775068</v>
+        <v>2.300364718320848</v>
       </c>
       <c r="E19" t="n">
-        <v>13.69266085704845</v>
+        <v>13.69274316174819</v>
       </c>
       <c r="F19" t="n">
-        <v>1.256570433121045</v>
+        <v>1.256545170832029</v>
       </c>
       <c r="G19" t="n">
-        <v>1.734258017836796</v>
+        <v>1.73424442791723</v>
       </c>
       <c r="H19" t="n">
-        <v>1.339831913971452</v>
+        <v>1.339845229362976</v>
       </c>
       <c r="I19" t="n">
-        <v>1.370864740698871</v>
+        <v>1.370849552576522</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09426675824677359</v>
+        <v>0.09426473551669838</v>
       </c>
       <c r="K19" t="n">
-        <v>-18.05364745478856</v>
+        <v>-18.0485968227206</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5825424110708697</v>
+        <v>0.5824490432721452</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1001167526904169</v>
+        <v>0.1001150416964004</v>
       </c>
       <c r="N19" t="n">
-        <v>11.56288797923167</v>
+        <v>11.56294801898326</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.756804610710731</v>
+        <v>-2.756827605456945</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2438022346280718</v>
+        <v>0.2441685381817735</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.81008390000818</v>
+        <v>11.81018881968163</v>
       </c>
       <c r="R19" t="n">
-        <v>15.12553048769966</v>
+        <v>15.12550828946285</v>
       </c>
       <c r="S19" t="n">
-        <v>1.961376216476785</v>
+        <v>1.96131603260207</v>
       </c>
       <c r="T19" t="n">
-        <v>4.03993345160877</v>
+        <v>4.040329904032145</v>
       </c>
       <c r="U19" t="n">
-        <v>15.73519450716037</v>
+        <v>15.73525837162025</v>
       </c>
     </row>
   </sheetData>
